--- a/TimeSeries/forecasted_data/uffici_12h_forecast.xlsx
+++ b/TimeSeries/forecasted_data/uffici_12h_forecast.xlsx
@@ -512,7322 +512,7322 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.735805749893188e-06</v>
+        <v>69811.02738601062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.416175842285156e-05</v>
+        <v>69812.47254079043</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.4257412254810333</v>
+        <v>61653.69466759377</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.6216488480567932</v>
+        <v>57900.12143274373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.007490310817956924</v>
+        <v>69954.37372114102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3638118505477905</v>
+        <v>76781.46384119612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3526197075843811</v>
+        <v>76567.02334257886</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.8034458756446838</v>
+        <v>54416.90598682452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1680685877799988</v>
+        <v>73031.03972616064</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6365464925765991</v>
+        <v>82007.03617511514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7262161374092102</v>
+        <v>83725.09887424283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8395989537239075</v>
+        <v>85897.50390379284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7318525314331055</v>
+        <v>83833.09169999916</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5919760465621948</v>
+        <v>81153.07025472172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5238955616950989</v>
+        <v>79848.65400765138</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5373743176460266</v>
+        <v>80106.90581486176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6087889075279236</v>
+        <v>81475.20322786731</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6749537587165833</v>
+        <v>82742.91609806738</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.649131178855896</v>
+        <v>82248.15768415028</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5705728530883789</v>
+        <v>80742.98690468482</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4985361993312836</v>
+        <v>79362.77080121887</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3989425897598267</v>
+        <v>77454.56578941562</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3265062272548676</v>
+        <v>76066.69130064547</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2190663516521454</v>
+        <v>74008.15250508615</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1816066205501556</v>
+        <v>73290.42727214003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1621673703193665</v>
+        <v>72917.97290608479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1655058562755585</v>
+        <v>72981.93801048107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1435292363166809</v>
+        <v>72560.86785820451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2106821537017822</v>
+        <v>73847.51199192798</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.346187561750412</v>
+        <v>76443.78398043662</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3670041263103485</v>
+        <v>76842.62757083081</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1615113168954849</v>
+        <v>72905.40297878877</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1926873624324799</v>
+        <v>73502.73333560466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4318288862705231</v>
+        <v>78084.66440810595</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6754012703895569</v>
+        <v>82751.49038331403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6721540689468384</v>
+        <v>82689.27428236144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5719789862632751</v>
+        <v>80769.92829563495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5135245323181152</v>
+        <v>79649.94597487825</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4879649579524994</v>
+        <v>79160.22672367438</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4870788753032684</v>
+        <v>79143.24945616284</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5523412227630615</v>
+        <v>80393.67043237487</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6111264228820801</v>
+        <v>81519.98982143654</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6098641753196716</v>
+        <v>81495.80526647273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5938769578933716</v>
+        <v>81189.49155268203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5449764728546143</v>
+        <v>80252.56245620605</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.466490775346756</v>
+        <v>78748.78322796235</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3645652234554291</v>
+        <v>76795.89840144852</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2293358147144318</v>
+        <v>74204.91453598657</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1755852103233337</v>
+        <v>73175.05756897949</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1774044036865234</v>
+        <v>73209.91315768659</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1579449623823166</v>
+        <v>72837.07193239756</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.07061022520065308</v>
+        <v>71163.74586346943</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.09710030257701874</v>
+        <v>71671.29347249919</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2744456827640533</v>
+        <v>75069.21573627906</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9556284546852112</v>
+        <v>88120.61918402105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.250854969024658</v>
+        <v>93777.13386105502</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.05396842956543</v>
+        <v>109164.7188380912</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.586211204528809</v>
+        <v>119362.444726844</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.89294171333313</v>
+        <v>125239.3749504987</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.931203842163086</v>
+        <v>125972.4740550472</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.996492147445679</v>
+        <v>127223.3923809163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.037495613098145</v>
+        <v>128009.0152637098</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.005899429321289</v>
+        <v>127403.6350942764</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.925431489944458</v>
+        <v>125861.8762819484</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.794344186782837</v>
+        <v>123350.2548038925</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.519791603088379</v>
+        <v>118089.8508636839</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.086354494094849</v>
+        <v>109785.2330549524</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.583827972412109</v>
+        <v>100156.8680286699</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.059834480285645</v>
+        <v>90117.19769108054</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5813698768615723</v>
+        <v>80949.85695352851</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.2393452525138855</v>
+        <v>74396.69450516769</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.004479777067899704</v>
+        <v>69896.69215286789</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.07150410115718842</v>
+        <v>68440.84756736434</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.09246224910020828</v>
+        <v>68039.29125150162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.1432180851697922</v>
+        <v>67066.81378850984</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.1260335445404053</v>
+        <v>67396.06811211185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.02746235951781273</v>
+        <v>70337.03646013633</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.3130167126655579</v>
+        <v>75808.23335884705</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9647370576858521</v>
+        <v>88295.13923577074</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.159419536590576</v>
+        <v>92025.23882303125</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8990206122398376</v>
+        <v>87036.0177811155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.353629589080811</v>
+        <v>95746.28676073595</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.636730313301086</v>
+        <v>101170.4723397782</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.872824907302856</v>
+        <v>105694.0244981181</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.883495569229126</v>
+        <v>105898.4734648197</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.820323824882507</v>
+        <v>104688.1082648309</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.717559576034546</v>
+        <v>102719.1540766088</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.653159856796265</v>
+        <v>101485.2609830861</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.512065768241882</v>
+        <v>98781.91035573377</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.376813173294067</v>
+        <v>96190.48224453915</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.257790684700012</v>
+        <v>93910.02157813949</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.022645831108093</v>
+        <v>89404.66636454115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.686110258102417</v>
+        <v>82956.67366879739</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2088225483894348</v>
+        <v>73811.88211374336</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.0858195573091507</v>
+        <v>68166.56465611163</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.1503418236970901</v>
+        <v>66930.32356971911</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.1411206275224686</v>
+        <v>67107.00089701901</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2006939649581909</v>
+        <v>65965.58086461091</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.6110495924949646</v>
+        <v>58103.20225963106</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.8487740159034729</v>
+        <v>53548.42270973752</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.3801728188991547</v>
+        <v>62526.78142681039</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.09824411571025848</v>
+        <v>71693.20883396472</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8117915987968445</v>
+        <v>85364.71736994658</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2836824655532837</v>
+        <v>75246.19170177713</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6282621026039124</v>
+        <v>81848.30797424326</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.608023166656494</v>
+        <v>100620.4458738484</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.38852858543396</v>
+        <v>115574.8627110267</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.827951192855835</v>
+        <v>123994.1621559419</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.58976149559021</v>
+        <v>119430.467998878</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.349051237106323</v>
+        <v>114818.4801051984</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.123914241790771</v>
+        <v>110504.8745972544</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.14192008972168</v>
+        <v>110849.8650982652</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.945708751678467</v>
+        <v>107090.472701125</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.514507055282593</v>
+        <v>98828.6852059112</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.019105315208435</v>
+        <v>89336.83038376721</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.641211986541748</v>
+        <v>82096.42663907305</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4867621958255768</v>
+        <v>79137.18190454917</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.2863016426563263</v>
+        <v>75296.37491028149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.06467045843601227</v>
+        <v>71049.94044203727</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.2323350310325623</v>
+        <v>65359.34075420912</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.3615030944347382</v>
+        <v>62884.49174522619</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.1922287046909332</v>
+        <v>66127.77452480364</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.1503512859344482</v>
+        <v>66930.14227406343</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.1370624452829361</v>
+        <v>67184.75532043641</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.4637794196605682</v>
+        <v>60924.88613172827</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.4178398847579956</v>
+        <v>61805.08367771743</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9539093971252441</v>
+        <v>88087.68218870959</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.428265571594238</v>
+        <v>97176.30578008677</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.00943398475647</v>
+        <v>108311.4426977042</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.79302179813385</v>
+        <v>104165.0037755133</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.77775514125824</v>
+        <v>103872.4959400319</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.204870939254761</v>
+        <v>112055.9979725849</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.436387300491333</v>
+        <v>116491.8315840689</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.456414222717285</v>
+        <v>116875.5456951147</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.123680353164673</v>
+        <v>110500.3933112518</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.775346040725708</v>
+        <v>103826.3377805888</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.582538843154907</v>
+        <v>100132.1684227409</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.530611991882324</v>
+        <v>99137.25440896163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.370010018348694</v>
+        <v>96060.13437966412</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.9770044088363647</v>
+        <v>88530.18063097354</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.48218634724617</v>
+        <v>79049.50903848829</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1121450811624527</v>
+        <v>71959.55013898338</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04118550196290016</v>
+        <v>70599.97069160042</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.01650591567158699</v>
+        <v>70127.11193637551</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.06439283490180969</v>
+        <v>71044.62119894888</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.2022752910852432</v>
+        <v>65935.28279173333</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.5840177536010742</v>
+        <v>58621.12997284011</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.5206218361854553</v>
+        <v>59835.79030959147</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.2229284197092056</v>
+        <v>65539.57061984559</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2350137233734131</v>
+        <v>74313.70277858818</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.02782007679343224</v>
+        <v>69277.82972500817</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.5136314034461975</v>
+        <v>59969.72640092426</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7165799736976624</v>
+        <v>83540.47080454987</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.614458680152893</v>
+        <v>100743.7497601137</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.679632425308228</v>
+        <v>101992.4731237766</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.581977605819702</v>
+        <v>100121.4151635664</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.400814175605774</v>
+        <v>96650.33938895402</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.719260811805725</v>
+        <v>102751.7496079766</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.68384575843811</v>
+        <v>102073.2002249374</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.228900194168091</v>
+        <v>93356.48225906388</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.9113219380378723</v>
+        <v>87271.71012764896</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.6798121333122253</v>
+        <v>82836.00213835163</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7280561327934265</v>
+        <v>83760.35302788747</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.5824239253997803</v>
+        <v>80970.05243305724</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.3986789286136627</v>
+        <v>77449.51406448375</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.032805185765028</v>
+        <v>69182.31546495757</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.3430860638618469</v>
+        <v>63237.36047036774</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.3318673372268677</v>
+        <v>63452.31030985075</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.2682253420352936</v>
+        <v>64671.68547566987</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.2255462557077408</v>
+        <v>65489.41310678849</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.4898568391799927</v>
+        <v>60425.24501182129</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.8658745884895325</v>
+        <v>53220.77720663913</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.6256766319274902</v>
+        <v>57822.94943946429</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.09232453256845474</v>
+        <v>68041.92988843055</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.1672957390546799</v>
+        <v>73016.23201091299</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.1398413181304932</v>
+        <v>67131.51235517298</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.7362628579139709</v>
+        <v>55704.12684058655</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.8227589130401611</v>
+        <v>54046.86984786169</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.06387075781822205</v>
+        <v>68587.10177060998</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.2843611538410187</v>
+        <v>75259.19531112196</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.3387280106544495</v>
+        <v>76300.85962165128</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.1815859526395798</v>
+        <v>66331.68874069719</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.4939047396183014</v>
+        <v>60347.68758683289</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.4938993155956268</v>
+        <v>60347.79151064182</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.3499016165733337</v>
+        <v>63106.77506535802</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.1707314997911453</v>
+        <v>66539.65912569367</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.1325512081384659</v>
+        <v>67271.19023694914</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.1926607489585876</v>
+        <v>66119.49659371542</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.2260938584804535</v>
+        <v>65478.92108466112</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.1066168695688248</v>
+        <v>67768.08993813816</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.04227786511182785</v>
+        <v>69000.81974166221</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.1639518886804581</v>
+        <v>66669.55589271674</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.4211678206920624</v>
+        <v>61741.32071083962</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.5106284022331238</v>
+        <v>60027.26364643525</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.3241542875766754</v>
+        <v>63600.09167917871</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.2078530341386795</v>
+        <v>65828.4137135373</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.1824785470962524</v>
+        <v>66314.58670751394</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.7995791435241699</v>
+        <v>54490.99224239267</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.7756850719451904</v>
+        <v>54948.80060314578</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-0.2241804003715515</v>
+        <v>65515.58277780583</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.03764474019408226</v>
+        <v>70532.12999999447</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.01412362977862358</v>
+        <v>69540.25247431923</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-0.534814178943634</v>
+        <v>59563.8662403975</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-0.7318668365478516</v>
+        <v>55788.35423267444</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.4104838371276855</v>
+        <v>61946.02491898402</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.3283891975879669</v>
+        <v>63518.951166822</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-0.3713131546974182</v>
+        <v>62696.53183253815</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-0.5507845282554626</v>
+        <v>59257.87571823237</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-0.5724076628684998</v>
+        <v>58843.57831484436</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-0.3481231331825256</v>
+        <v>63140.85065448821</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-0.1597601920366287</v>
+        <v>66749.86844066165</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.1009041741490364</v>
+        <v>67877.54469209127</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.08518996834754944</v>
+        <v>71443.09249086273</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.1132060587406158</v>
+        <v>71979.87837832296</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.06359577178955078</v>
+        <v>71029.34953812567</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.03962786495685577</v>
+        <v>69051.59351719616</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.09262408316135406</v>
+        <v>68036.19052477942</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.1444037407636642</v>
+        <v>67044.09672908971</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.2260621935129166</v>
+        <v>65479.5277827215</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.3287987112998962</v>
+        <v>63511.1049192478</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.3776918947696686</v>
+        <v>62574.31572020692</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.2209826111793518</v>
+        <v>65576.85214427926</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.1756774336099625</v>
+        <v>73176.82455923628</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.4480449855327606</v>
+        <v>78395.36347822951</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.284975647926331</v>
+        <v>94430.88314041603</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.956560015678406</v>
+        <v>107298.381988058</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.100129842758179</v>
+        <v>110049.1675530775</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.270370006561279</v>
+        <v>113310.9544807438</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.259099721908569</v>
+        <v>113095.016794066</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.300150156021118</v>
+        <v>113881.5395885237</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.121474027633667</v>
+        <v>110458.1203034348</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.932536840438843</v>
+        <v>106838.1000122484</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.674874305725098</v>
+        <v>101901.3079609278</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.380231499671936</v>
+        <v>96255.97708456247</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8967846035957336</v>
+        <v>86993.1760473991</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.453803539276123</v>
+        <v>78505.69687372653</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.106793075799942</v>
+        <v>71857.00617557162</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-0.2040665298700333</v>
+        <v>65900.96281034919</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.4536268711090088</v>
+        <v>61119.40809063731</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.6258992552757263</v>
+        <v>57818.68399521866</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.7332521677017212</v>
+        <v>55761.81140666184</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-0.5606124401092529</v>
+        <v>59069.57377059076</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.4588437676429749</v>
+        <v>61019.45280078479</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.3329664766788483</v>
+        <v>63431.25089228405</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.4891036450862885</v>
+        <v>60439.67614601404</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.6345417499542236</v>
+        <v>57653.09453891766</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.1661311089992523</v>
+        <v>72993.91779900496</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8049549460411072</v>
+        <v>85233.72768989993</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.38513708114624</v>
+        <v>96349.96760459036</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.670992851257324</v>
+        <v>101826.9396264497</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.521685004234314</v>
+        <v>98966.21409178128</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.617887854576111</v>
+        <v>100809.4524477549</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.065634727478027</v>
+        <v>109388.2441048407</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.139854431152344</v>
+        <v>110810.2872573611</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.052975416183472</v>
+        <v>109145.6927869178</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.690979361534119</v>
+        <v>102209.879448018</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.276695132255554</v>
+        <v>94272.22917083625</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.9455033540725708</v>
+        <v>87926.62312526599</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.6200238466262817</v>
+        <v>81690.46369675723</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.4927250444889069</v>
+        <v>79251.42957317922</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.4278528094291687</v>
+        <v>78008.48311707097</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.2585684359073639</v>
+        <v>74765.00904916391</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.0331290028989315</v>
+        <v>69176.11115646348</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.2925764322280884</v>
+        <v>64205.12067749952</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.2149654477834702</v>
+        <v>65692.14047852346</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.09552812576293945</v>
+        <v>67980.54931777145</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.07483594119548798</v>
+        <v>68377.0097981845</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.3029422461986542</v>
+        <v>64006.51257146575</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.6006553769111633</v>
+        <v>58302.35453813686</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.222397118806839</v>
+        <v>65549.75029953622</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7543646693229675</v>
+        <v>84264.42232987274</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1.092667102813721</v>
+        <v>90746.26792087041</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.28244149684906</v>
+        <v>94382.32902326813</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.526117324829102</v>
+        <v>99051.13697397508</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.705679416656494</v>
+        <v>102491.5312425357</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.302639245986938</v>
+        <v>113929.2303386435</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.473942756652832</v>
+        <v>117211.3909009396</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.271966457366943</v>
+        <v>113341.5423411655</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.850692391395569</v>
+        <v>105269.9673928498</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.551519393920898</v>
+        <v>99537.83843765043</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.385427594184875</v>
+        <v>96355.53380947743</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.38493013381958</v>
+        <v>96346.00251157273</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1.277023434638977</v>
+        <v>94278.51941632619</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.8463873267173767</v>
+        <v>86027.56854773802</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.3643598258495331</v>
+        <v>76791.96300094773</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.0185358040034771</v>
+        <v>70166.00442260009</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.007995303720235825</v>
+        <v>69964.04934180784</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.04807718098163605</v>
+        <v>68889.70534732089</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.08739667385816574</v>
+        <v>68136.34723838797</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.420761913061142</v>
+        <v>61749.09786621118</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.7218018174171448</v>
+        <v>55981.19913539212</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.5085776448249817</v>
+        <v>60066.55598236973</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.2067493349313736</v>
+        <v>65849.5604956247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.0848231166601181</v>
+        <v>71436.06364401647</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-0.07859793305397034</v>
+        <v>68304.93035704757</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.009057901799678802</v>
+        <v>69637.31138763153</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.7877581119537354</v>
+        <v>84904.23782469801</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.155296087265015</v>
+        <v>91946.23388784705</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.085202932357788</v>
+        <v>109763.1692309027</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.387388944625854</v>
+        <v>115553.0272909526</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.318906545639038</v>
+        <v>114240.9104038426</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.001941680908203</v>
+        <v>108167.8907989958</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.599121809005737</v>
+        <v>100449.8966252157</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.262921690940857</v>
+        <v>94008.33121734731</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.066335439682007</v>
+        <v>90241.75551517232</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.254051566123962</v>
+        <v>93838.38038713089</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.18737256526947</v>
+        <v>92560.81645346018</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.7573592662811279</v>
+        <v>84321.79855058089</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.331918865442276</v>
+        <v>76170.39698377848</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.09627419710159302</v>
+        <v>71655.46536249024</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.04262081906199455</v>
+        <v>70627.47124403348</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.02358056232333183</v>
+        <v>70262.66155904392</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.03411378711462021</v>
+        <v>69157.24277540964</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-0.3129343688488007</v>
+        <v>63815.06435905928</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.4773082137107849</v>
+        <v>60665.67559883002</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.2567320466041565</v>
+        <v>64891.89602972249</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.0103372260928154</v>
+        <v>69612.79964397258</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.328288346529007</v>
+        <v>76100.83655298823</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-0.06279937922954559</v>
+        <v>68607.62929241834</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.08622258901596069</v>
+        <v>68158.84260319921</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.389016389846802</v>
+        <v>96424.29482635285</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.073975086212158</v>
+        <v>109548.0446623783</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.18415904045105</v>
+        <v>111659.1597690971</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.076974868774414</v>
+        <v>109605.5202388159</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.251600980758667</v>
+        <v>112951.3415572107</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.604455947875977</v>
+        <v>119712.0124435272</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.73541522026062</v>
+        <v>122221.1808628843</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.446463584899902</v>
+        <v>116684.8923285435</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1.982749581336975</v>
+        <v>107800.1718183661</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.647585153579712</v>
+        <v>101378.4501479039</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.335263252258301</v>
+        <v>95394.38932350095</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.081934928894043</v>
+        <v>90540.64038965436</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.7706913948059082</v>
+        <v>84577.24098889052</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.3564497530460358</v>
+        <v>76640.40668491188</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-0.04766114801168442</v>
+        <v>68897.67650331928</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.2071264237165451</v>
+        <v>65842.33550686431</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.09766358137130737</v>
+        <v>67939.63417158983</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.01985477656126022</v>
+        <v>69430.44419383754</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.1032075881958008</v>
+        <v>67833.41147664495</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.5433342456817627</v>
+        <v>59400.62249292662</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.6009283065795898</v>
+        <v>58297.1252291139</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.1243574023246765</v>
+        <v>72193.53716433349</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.3926649391651154</v>
+        <v>77334.28654279807</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.5640637278556824</v>
+        <v>80618.27262386969</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-0.0959932953119278</v>
+        <v>67971.63670913584</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>-0.2413211166858673</v>
+        <v>65187.16812431937</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.396845817565918</v>
+        <v>77414.39181413506</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.856999933719635</v>
+        <v>86230.9051870781</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1.03761887550354</v>
+        <v>89691.54861010174</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.6701187491416931</v>
+        <v>82650.27772957545</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.4213647842407227</v>
+        <v>77884.17311129278</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.4603106677532196</v>
+        <v>78630.37289687572</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.6514627933502197</v>
+        <v>82292.83121775155</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.7876113653182983</v>
+        <v>84901.42617175751</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.7000494003295898</v>
+        <v>83223.74643754814</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.4211888611316681</v>
+        <v>77880.80243962184</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.2172784507274628</v>
+        <v>73973.89647681519</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.1660693287849426</v>
+        <v>72992.73409540104</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.1400870084762573</v>
+        <v>72494.91506820997</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.02950978651642799</v>
+        <v>70376.26498571011</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.2846966981887817</v>
+        <v>64356.09570541728</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.4337467849254608</v>
+        <v>61500.30883571281</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.2530303001403809</v>
+        <v>64962.82117426737</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.1832970678806305</v>
+        <v>66298.90391953451</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.0484057329595089</v>
+        <v>68883.41031962271</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.4875268340110779</v>
+        <v>60469.88771088583</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.6686413884162903</v>
+        <v>56999.74839257372</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.01496729999780655</v>
+        <v>69524.08782532738</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.3447510004043579</v>
+        <v>76416.25958833858</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.3561004102230072</v>
+        <v>76633.71330640488</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-0.1790761649608612</v>
+        <v>66379.7760572198</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.2628131508827209</v>
+        <v>64775.3825936538</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.154882088303566</v>
+        <v>72778.38752791878</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.3372083306312561</v>
+        <v>76271.74268283289</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.2284040153026581</v>
+        <v>74187.06133922834</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.02553057298064232</v>
+        <v>70300.02359587903</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.006942760199308395</v>
+        <v>69943.88269828104</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.207715779542923</v>
+        <v>73790.67651763224</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.3342695832252502</v>
+        <v>76215.43653475076</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.3561012148857117</v>
+        <v>76633.72872367324</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.1586295515298843</v>
+        <v>72850.18860171035</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.06349903345108032</v>
+        <v>68594.22397758131</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.02627099864184856</v>
+        <v>69307.50992944343</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.009022112935781479</v>
+        <v>69637.99709919223</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.03405582532286644</v>
+        <v>70463.36669907931</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.2344516664743423</v>
+        <v>65318.78620080409</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.534562885761261</v>
+        <v>59568.68099620462</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.3919061124324799</v>
+        <v>62301.9725297176</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.1361658126115799</v>
+        <v>67201.93472546642</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.1521627008914948</v>
+        <v>72726.28429849395</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.05196107551455498</v>
+        <v>68815.29026140402</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>-0.1542884558439255</v>
+        <v>66854.70643650404</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.13660192489624</v>
+        <v>91588.05534128111</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.060631275177002</v>
+        <v>109292.3783881725</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.601422309875488</v>
+        <v>119653.8881997987</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.78863525390625</v>
+        <v>123240.8721399442</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.783879518508911</v>
+        <v>123149.7526578905</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.561585426330566</v>
+        <v>118890.6169300643</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.769368648529053</v>
+        <v>122871.7256344667</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.783179044723511</v>
+        <v>123136.3316402802</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.516558170318604</v>
+        <v>118027.8985693232</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.177852392196655</v>
+        <v>111538.3249298087</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.710307478904724</v>
+        <v>102580.20451801</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.219576954841614</v>
+        <v>93177.84979373225</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.8163958191871643</v>
+        <v>85452.93383746954</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.5512300729751587</v>
+        <v>80372.38089780269</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.3059882521629333</v>
+        <v>75673.56865883188</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.02279863320291042</v>
+        <v>69374.04015323897</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-0.01705174520611763</v>
+        <v>69484.15003403291</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.004710253328084946</v>
+        <v>69720.61195921189</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.4075733423233032</v>
+        <v>62001.78974964381</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.6455004215240479</v>
+        <v>57443.12733216389</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.5900709629058838</v>
+        <v>58505.15100207448</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-0.3672494292259216</v>
+        <v>62774.39246380424</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.3502586185932159</v>
+        <v>76521.78508014775</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.294267296791077</v>
+        <v>94608.91033521213</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.146393299102783</v>
+        <v>110935.5714060955</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.413071393966675</v>
+        <v>116045.1008161357</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.321572542190552</v>
+        <v>114291.9906689614</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.426305770874023</v>
+        <v>116298.6703418449</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.693668603897095</v>
+        <v>121421.3192762476</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>3.013928174972534</v>
+        <v>127557.46517189</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>3.094900369644165</v>
+        <v>129108.8854723889</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.769402265548706</v>
+        <v>122872.369733678</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.373900651931763</v>
+        <v>115294.5927605617</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.988966107368469</v>
+        <v>107919.2799235984</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.584728479385376</v>
+        <v>100174.121664992</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.244076609611511</v>
+        <v>93647.26107644939</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.8535013198852539</v>
+        <v>86163.87204627863</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.4701022207736969</v>
+        <v>78817.97821239154</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-0.001038391143083572</v>
+        <v>69790.96452354027</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.2996215522289276</v>
+        <v>64070.13678292833</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.2193723320960999</v>
+        <v>65607.70495331274</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.154894694685936</v>
+        <v>66843.09095232135</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.2306802421808243</v>
+        <v>65391.04636658676</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.5110676884651184</v>
+        <v>60018.84695993182</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.6298785209655762</v>
+        <v>57742.44160612018</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-0.03446274995803833</v>
+        <v>69150.55667727935</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.9708532094955444</v>
+        <v>88412.3241795279</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1.753603100776672</v>
+        <v>103409.7449172453</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.889158725738525</v>
+        <v>106006.9790575014</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.546599626541138</v>
+        <v>99443.57611689149</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.838115334510803</v>
+        <v>105028.9920623591</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.39549708366394</v>
+        <v>115708.3785390442</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.618819713592529</v>
+        <v>119987.2209618913</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.625179290771484</v>
+        <v>120109.0699148316</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.44057559967041</v>
+        <v>116572.0790368807</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.293097972869873</v>
+        <v>113746.4203645969</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.99457323551178</v>
+        <v>108026.7120175945</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1.868963956832886</v>
+        <v>105620.0490184782</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.6413813829422</v>
+        <v>101259.5864349255</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.267146825790405</v>
+        <v>94089.28443844397</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.7152284979820251</v>
+        <v>83514.57664582817</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.2451204657554626</v>
+        <v>74507.3470952207</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1553991585969925</v>
+        <v>72788.29455036345</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.1308135837316513</v>
+        <v>72317.23704599167</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.1789084672927856</v>
+        <v>73238.73088729686</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.004280060529708862</v>
+        <v>69728.85441630764</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.3514712452888489</v>
+        <v>63076.70111388158</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.3007453382015228</v>
+        <v>64048.60514014194</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.04177021607756615</v>
+        <v>70611.17376385453</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.3814264833927155</v>
+        <v>77118.95869473532</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.7845045328140259</v>
+        <v>84841.89952761844</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.7012129426002502</v>
+        <v>83246.03980759339</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.556062579154968</v>
+        <v>99624.88547681796</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.322840452194214</v>
+        <v>114316.2837158136</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.775076866149902</v>
+        <v>122981.0945941764</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.817618131637573</v>
+        <v>123796.1815898313</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.634624481201172</v>
+        <v>120290.0389528344</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.693257570266724</v>
+        <v>121413.4439071665</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.914292097091675</v>
+        <v>125648.4464709234</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.847614765167236</v>
+        <v>124370.9145138093</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.367799997329712</v>
+        <v>115177.7047419729</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.826016664505005</v>
+        <v>104797.182583412</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.349695563316345</v>
+        <v>95670.91116472514</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.9967046976089478</v>
+        <v>88907.63647308601</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.6347708702087402</v>
+        <v>81973.01540293911</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.3225080966949463</v>
+        <v>75990.0874622555</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.102820873260498</v>
+        <v>71780.89911582872</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-0.04860245436429977</v>
+        <v>68879.64115439045</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>-0.2274430990219116</v>
+        <v>65453.06975168487</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-0.244380310177803</v>
+        <v>65128.55423956807</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-0.2706646919250488</v>
+        <v>64624.94774113849</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-0.3015926778316498</v>
+        <v>64032.37018555133</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-0.6101344227790833</v>
+        <v>58120.73683284323</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>-0.6030113101005554</v>
+        <v>58257.21506042523</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-0.01447213441133499</v>
+        <v>69533.57515546678</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.3546664118766785</v>
+        <v>76606.23802116161</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1.793609738349915</v>
+        <v>104176.2686595933</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.498516082763672</v>
+        <v>117682.2137202264</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.793610334396362</v>
+        <v>123336.1942551503</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.740770578384399</v>
+        <v>122323.7890649142</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.703809499740601</v>
+        <v>121615.6179702704</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>3.015565872192383</v>
+        <v>127588.8433100675</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>3.23473858833313</v>
+        <v>131788.1737409044</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>3.054772615432739</v>
+        <v>128340.0411456481</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2.505099534988403</v>
+        <v>117808.3520998298</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1.896547555923462</v>
+        <v>106148.5484097011</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1.554461240768433</v>
+        <v>99594.20397076623</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1.052430391311646</v>
+        <v>89975.335981792</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.6883955001831055</v>
+        <v>83000.45871093329</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.390099436044693</v>
+        <v>77285.13172319416</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.1748716086149216</v>
+        <v>73161.38502149093</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.09340977668762207</v>
+        <v>71600.58331319642</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.06881077587604523</v>
+        <v>71129.26856884704</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-0.102772444486618</v>
+        <v>67841.74879276683</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-0.4527779519557953</v>
+        <v>61135.67330875469</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>-0.6476525068283081</v>
+        <v>57401.89356243621</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-0.5568605661392212</v>
+        <v>59141.45935385333</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.07283926010131836</v>
+        <v>71206.45398086005</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.5188152194023132</v>
+        <v>79751.31508534017</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.949977695941925</v>
+        <v>88012.35113147403</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.8012343645095825</v>
+        <v>85162.44166707349</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.2645387947559357</v>
+        <v>74879.40061229863</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.7034782767295837</v>
+        <v>83289.44341508993</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1.22870659828186</v>
+        <v>93352.77297849901</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1.660094499588013</v>
+        <v>101618.1281438128</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1.278305888175964</v>
+        <v>94303.09111602875</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.91593337059021</v>
+        <v>87360.06477957719</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.8494297862052917</v>
+        <v>86085.86181040847</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.902215301990509</v>
+        <v>87097.22776255525</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.8359724879264832</v>
+        <v>85828.0211303543</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.5989232659339905</v>
+        <v>81286.17838164271</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.3266813457012177</v>
+        <v>76070.04655504806</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.2668913900852203</v>
+        <v>74924.47613689708</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.2548368275165558</v>
+        <v>74693.51175265998</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.2370988726615906</v>
+        <v>74353.65405999246</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.04651500657200813</v>
+        <v>70702.0835425081</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>-0.203725278377533</v>
+        <v>65907.50115965771</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>-0.1905340552330017</v>
+        <v>66160.24386297492</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-0.0635349303483963</v>
+        <v>68593.53619610956</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>-0.01941334642469883</v>
+        <v>69438.90195736848</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>-0.01712694019079208</v>
+        <v>69482.70930458013</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>-0.4065640866756439</v>
+        <v>62021.12700123396</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>-0.4009585678577423</v>
+        <v>62128.52826069331</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.1352548450231552</v>
+        <v>72402.33123116723</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.327653557062149</v>
+        <v>76088.67404128381</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.06408388912677765</v>
+        <v>71038.70182441443</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>-0.3566811084747314</v>
+        <v>62976.88058237471</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>-0.3115900158882141</v>
+        <v>63840.82204640551</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.134604275226593</v>
+        <v>72389.86636970002</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.3828379511833191</v>
+        <v>77146.00229646458</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.3059494197368622</v>
+        <v>75672.82463288114</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.124284103512764</v>
+        <v>72192.1327653881</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.2031089067459106</v>
+        <v>73702.40923022469</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.3829850852489471</v>
+        <v>77148.82137253428</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.5033213496208191</v>
+        <v>79454.45387008257</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.5066786408424377</v>
+        <v>79518.77928175047</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.3019953370094299</v>
+        <v>75597.06474718126</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.1960838437080383</v>
+        <v>73567.80962534258</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.2588765025138855</v>
+        <v>74770.91157890516</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.2357352077960968</v>
+        <v>74327.52635820565</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.2576547861099243</v>
+        <v>74747.50359745864</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>-0.04220258817076683</v>
+        <v>69002.26204139231</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>-0.300532728433609</v>
+        <v>64052.67872504801</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>-0.08488275855779648</v>
+        <v>68184.51363978717</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.1003087908029556</v>
+        <v>71732.7678315408</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.2996863126754761</v>
+        <v>75552.8240391139</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.2693142592906952</v>
+        <v>74970.89810293209</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.3587311208248138</v>
+        <v>76684.11749575569</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1.678882241249084</v>
+        <v>101978.0996615877</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.56211256980896</v>
+        <v>118900.7169538684</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.824071407318115</v>
+        <v>123919.8257980204</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.881156444549561</v>
+        <v>125013.570212072</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.966786623001099</v>
+        <v>126654.2370820241</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>3.187845468521118</v>
+        <v>130889.7055898915</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>3.254916191101074</v>
+        <v>132174.7748782027</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>3.088736295700073</v>
+        <v>128990.7823446495</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.709488391876221</v>
+        <v>121724.4250562</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.181677103042603</v>
+        <v>111611.6060613626</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1.834141492843628</v>
+        <v>104952.8535970695</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1.35869026184082</v>
+        <v>95843.24881648732</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>1.028255224227905</v>
+        <v>89512.14185529259</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.5184553861618042</v>
+        <v>79744.42071133458</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.118426650762558</v>
+        <v>72079.90447340794</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.1348337084054947</v>
+        <v>72394.26228971676</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.234185129404068</v>
+        <v>74297.8269892493</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.3520413637161255</v>
+        <v>76555.94232369923</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.100604310631752</v>
+        <v>71738.42996609765</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>-0.2130371183156967</v>
+        <v>65729.08710562781</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.1494883596897125</v>
+        <v>72675.04415059218</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.6243406534194946</v>
+        <v>81773.17334442679</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>1.308888554573059</v>
+        <v>94889.0523794507</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1.428526163101196</v>
+        <v>97181.29869099491</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1.648120999336243</v>
+        <v>101388.7169066102</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.261524677276611</v>
+        <v>113141.4787307968</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.838058948516846</v>
+        <v>124187.8258869124</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.916676998138428</v>
+        <v>125694.1409702959</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.747143507003784</v>
+        <v>122445.8938303073</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.717304229736328</v>
+        <v>121874.1758388081</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.853928804397583</v>
+        <v>124491.8909635626</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.752138376235962</v>
+        <v>122541.595096113</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.522172451019287</v>
+        <v>118135.4677057047</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.280261993408203</v>
+        <v>113500.4840997546</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1.936186075210571</v>
+        <v>106908.0190372804</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1.485531687736511</v>
+        <v>98273.51965052882</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1.125920534133911</v>
+        <v>91383.40081100143</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.7684219479560852</v>
+        <v>84533.75858202238</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.5187774300575256</v>
+        <v>79750.5910447373</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.2981240451335907</v>
+        <v>75522.89112709241</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.0536247156560421</v>
+        <v>70838.30495836996</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.06031930074095726</v>
+        <v>70966.57263403657</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.05992826446890831</v>
+        <v>70959.08041262465</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>-0.03645893186330795</v>
+        <v>69112.31000329599</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-0.3291030824184418</v>
+        <v>63505.27319473901</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-0.2827865481376648</v>
+        <v>64392.69401645874</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.2961017489433289</v>
+        <v>75484.14410564984</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.6764771938323975</v>
+        <v>82772.1049841381</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1.738549709320068</v>
+        <v>103121.3232288887</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.126317024230957</v>
+        <v>110550.9117025904</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.823884725570679</v>
+        <v>123916.2489917614</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>3.147855758666992</v>
+        <v>130123.5061811889</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>3.191528797149658</v>
+        <v>130960.2778502939</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.86041522026062</v>
+        <v>124616.1701348041</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.604994297027588</v>
+        <v>119722.3271670684</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2.451814413070679</v>
+        <v>116787.4137370627</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.37188196182251</v>
+        <v>115255.9148313218</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1.971942782402039</v>
+        <v>107593.1144782624</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1.530586957931519</v>
+        <v>99136.77476061272</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1.074233531951904</v>
+        <v>90393.08228521263</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.8462011814117432</v>
+        <v>86024.00201965793</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.5503708720207214</v>
+        <v>80355.91868125628</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.2734369039535522</v>
+        <v>75049.88762084793</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>-0.1083791106939316</v>
+        <v>67734.32554942483</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-0.2432503998279572</v>
+        <v>65150.20322489697</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-0.1557271480560303</v>
+        <v>66827.14121719536</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-0.1475845128297806</v>
+        <v>66983.15340929155</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-0.0809311717748642</v>
+        <v>68260.22570340463</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>-0.2867023348808289</v>
+        <v>64317.66787853071</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-0.2399629503488541</v>
+        <v>65213.19047477241</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.9446128606796265</v>
+        <v>87909.56134828346</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>1.594096899032593</v>
+        <v>100353.6197813914</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.045708417892456</v>
+        <v>109006.4577233495</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1.985601782798767</v>
+        <v>107854.8197535849</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.326535940170288</v>
+        <v>114387.0889482713</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.829362630844116</v>
+        <v>124021.2051866612</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>3.058572769165039</v>
+        <v>128412.8517650121</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.958618402481079</v>
+        <v>126497.7346778951</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.591397523880005</v>
+        <v>119461.8141604989</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.137067556381226</v>
+        <v>110756.890975929</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1.790536880493164</v>
+        <v>104117.3929667849</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>1.686109662055969</v>
+        <v>102116.5764239568</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1.505962014198303</v>
+        <v>98664.96295211129</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.9307451844215393</v>
+        <v>87643.85786136685</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.4864883124828339</v>
+        <v>79131.93432320814</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.2609291970729828</v>
+        <v>74810.24103048569</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.1484785228967667</v>
+        <v>72655.69576430821</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.1064607501029968</v>
+        <v>71850.63884373989</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>-0.01189262419939041</v>
+        <v>69582.99834974209</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-0.2534741163253784</v>
+        <v>64954.31769425319</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>-0.240945041179657</v>
+        <v>65194.37369874182</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>-0.04020047932863235</v>
+        <v>69040.62227497734</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.2201563119888306</v>
+        <v>74029.03605159158</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.4346015751361847</v>
+        <v>78137.788888807</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.5024439692497253</v>
+        <v>79437.64333747327</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.5689395070075989</v>
+        <v>80711.69213395842</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1.948197722434998</v>
+        <v>107138.1611672051</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.273322582244873</v>
+        <v>113367.5255774377</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.48943305015564</v>
+        <v>117508.1835950045</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.495117664337158</v>
+        <v>117617.1003148424</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.833402872085571</v>
+        <v>124098.6158620952</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.846842765808105</v>
+        <v>124356.1230723449</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.754201650619507</v>
+        <v>122581.1272562219</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2.605807781219482</v>
+        <v>119737.9134543681</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2.322569131851196</v>
+        <v>114311.0852413274</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.007080554962158</v>
+        <v>108266.3511848275</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1.753900408744812</v>
+        <v>103415.4413123985</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1.347754120826721</v>
+        <v>95633.71329324757</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.9866026639938354</v>
+        <v>88714.08237602387</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.6455351710319519</v>
+        <v>82179.2584828696</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.3921977281570435</v>
+        <v>77325.33481998162</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.2026056051254272</v>
+        <v>73692.76601437191</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.1390925645828247</v>
+        <v>72475.86160855959</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>-0.2251126021146774</v>
+        <v>65497.72187241341</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-0.5237394571304321</v>
+        <v>59776.05695985441</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>-0.7083573937416077</v>
+        <v>56238.79313915256</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>-0.6604260802268982</v>
+        <v>57157.15299240658</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-0.4682849943637848</v>
+        <v>60838.55970710397</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>-0.142928808927536</v>
+        <v>67072.35629648443</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.8845904469490051</v>
+        <v>86759.53705260692</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>1.487011909484863</v>
+        <v>98301.88057218774</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1.175589323043823</v>
+        <v>92335.05054370934</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.5191599130630493</v>
+        <v>79757.91938629666</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.5445570349693298</v>
+        <v>80244.52606232211</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>1.055940866470337</v>
+        <v>90042.59638454726</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>1.084971308708191</v>
+        <v>90598.81716629723</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.8523561358451843</v>
+        <v>86141.93041835591</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.4849737584590912</v>
+        <v>79102.91559809929</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.3424673676490784</v>
+        <v>76372.5053807394</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.4591406285762787</v>
+        <v>78607.95504666373</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.5572462677955627</v>
+        <v>80487.65067422387</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.6022195816040039</v>
+        <v>81349.33550697505</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.4407088458538055</v>
+        <v>78254.80367160229</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.1913048475980759</v>
+        <v>73476.24447003132</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.152794748544693</v>
+        <v>72738.39427728397</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.1781751215457916</v>
+        <v>73224.68004572359</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.2302226126194</v>
+        <v>74221.90550773665</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.1416361033916473</v>
+        <v>72524.59559383833</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-0.1725886315107346</v>
+        <v>66504.076641334</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-0.1918784081935883</v>
+        <v>66134.4861756287</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.07742078602313995</v>
+        <v>71294.23562431433</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.3189525902271271</v>
+        <v>75921.96426348215</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.565265417098999</v>
+        <v>80641.29688663709</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>-0.1257048547267914</v>
+        <v>67402.36578073101</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>-0.04516986757516861</v>
+        <v>68945.40922266967</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.8057729601860046</v>
+        <v>85249.40077071039</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1.167947888374329</v>
+        <v>92188.64131126521</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.9433364272117615</v>
+        <v>87885.1049925886</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.5514618754386902</v>
+        <v>80376.8222131096</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.3688314855098724</v>
+        <v>76877.63961626124</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.5527405142784119</v>
+        <v>80401.32082353994</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.625043511390686</v>
+        <v>81786.64004283228</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.5421914458274841</v>
+        <v>80199.20157739018</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.4315818548202515</v>
+        <v>78079.93130672013</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.4892790019512177</v>
+        <v>79185.40369391246</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.5973120927810669</v>
+        <v>81255.30844231106</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.6032682657241821</v>
+        <v>81369.42820471473</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.3654955327510834</v>
+        <v>76813.72304770979</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.09602348506450653</v>
+        <v>71650.66174137694</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.07703602313995361</v>
+        <v>71286.86360049462</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.1307700127363205</v>
+        <v>72316.4022294606</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.1635913401842117</v>
+        <v>72945.25604648353</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.01884201541543007</v>
+        <v>70171.87140697261</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-0.3985425531864166</v>
+        <v>62174.81889444232</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-0.3822647929191589</v>
+        <v>62486.69938413003</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.1496134549379349</v>
+        <v>72677.44096481186</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.5542811751365662</v>
+        <v>80430.83975335551</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.7943729162216187</v>
+        <v>85030.97690675744</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1.441150784492493</v>
+        <v>97423.18535334854</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.215821981430054</v>
+        <v>112265.8190007942</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.547607660293579</v>
+        <v>118622.8041324324</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>3.040328025817871</v>
+        <v>128063.2840483289</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>3.225081920623779</v>
+        <v>131603.1528163733</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>3.07589864730835</v>
+        <v>128744.8141032506</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.655596971511841</v>
+        <v>120691.8700672303</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.272205591201782</v>
+        <v>113346.1241249174</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1.880582213401794</v>
+        <v>105842.6538172058</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1.771403312683105</v>
+        <v>103750.7954496758</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1.550086736679077</v>
+        <v>99510.38884785442</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1.153834342956543</v>
+        <v>91918.22699235042</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.6041684746742249</v>
+        <v>81386.67613093744</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.2289498150348663</v>
+        <v>74197.51881525439</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.1598993986845016</v>
+        <v>72874.51876420864</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.1388290971517563</v>
+        <v>72470.81359519232</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.1573381572961807</v>
+        <v>72825.44559902603</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>-0.1646819710731506</v>
+        <v>66655.5675767318</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-0.4268200695514679</v>
+        <v>61633.02410779565</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-0.1904222816228867</v>
+        <v>66162.3854357518</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.1394905149936676</v>
+        <v>72483.48630427739</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.3819863498210907</v>
+        <v>77129.68568745266</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.07047823071479797</v>
+        <v>71161.21686044883</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>-0.2492873817682266</v>
+        <v>65034.53516904321</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1.06893253326416</v>
+        <v>90291.51560531175</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.019145488739014</v>
+        <v>108497.5142805234</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.260716199874878</v>
+        <v>113125.9883731669</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.268180370330811</v>
+        <v>113269.0012384928</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.369826078414917</v>
+        <v>115216.5242816778</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.500969171524048</v>
+        <v>117729.2146903397</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.546273231506348</v>
+        <v>118597.2365913959</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.317278385162354</v>
+        <v>114209.7149888456</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1.864474415779114</v>
+        <v>105534.0297972012</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1.483089804649353</v>
+        <v>98226.7333801526</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>1.349215149879456</v>
+        <v>95661.70648450566</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>1.140714406967163</v>
+        <v>91666.8501448077</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.9051527976989746</v>
+        <v>87153.50992821994</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.409506231546402</v>
+        <v>77656.96425942563</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.02458880469202995</v>
+        <v>70281.97939629614</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.03652692958712578</v>
+        <v>70510.71284470089</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.1059425622224808</v>
+        <v>71840.71040842248</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.1483942419290543</v>
+        <v>72654.08094820022</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-0.1687850952148438</v>
+        <v>66576.95207032612</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-0.485004186630249</v>
+        <v>60518.22141819721</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-0.02439706958830357</v>
+        <v>69343.41424928006</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.4670411646366119</v>
+        <v>78759.32863951904</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1.332805633544922</v>
+        <v>95347.30155987685</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.9573367834091187</v>
+        <v>88153.35061575442</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1.208923816680908</v>
+        <v>92973.7365808749</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1.727876305580139</v>
+        <v>102916.8217292727</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.378331899642944</v>
+        <v>115379.4950863977</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.686490774154663</v>
+        <v>121283.7926744172</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.466724634170532</v>
+        <v>117073.0922936715</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.263433456420898</v>
+        <v>113178.050775381</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.036742210388184</v>
+        <v>108834.6659570892</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.115182399749756</v>
+        <v>110337.5732531558</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.053983449935913</v>
+        <v>109165.0066271005</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1.888862729072571</v>
+        <v>106001.3077867856</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1.461793899536133</v>
+        <v>97818.70566589673</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1.010668039321899</v>
+        <v>89175.17290190737</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.8381537199020386</v>
+        <v>85869.8133478025</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.6729517579078674</v>
+        <v>82704.55793439338</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.5274028182029724</v>
+        <v>79915.8527413332</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.4167159497737885</v>
+        <v>77795.10184189088</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.3977204561233521</v>
+        <v>77431.14981382995</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.3934419751167297</v>
+        <v>77349.17448494217</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.2285297811031342</v>
+        <v>74189.47100117165</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>-0.1184244453907013</v>
+        <v>67541.85779877196</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>-0.1920010596513748</v>
+        <v>66132.13618422403</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-0.1394014954566956</v>
+        <v>67139.93931985533</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.8303402662277222</v>
+        <v>85720.10824598945</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>1.280069947242737</v>
+        <v>94336.89033634837</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2.031957864761353</v>
+        <v>108742.9983054939</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.061111688613892</v>
+        <v>109301.583068392</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.152610063552856</v>
+        <v>111054.6840794073</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.236206293106079</v>
+        <v>112656.3806630306</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.820475339889526</v>
+        <v>123850.9254547199</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.958892345428467</v>
+        <v>126502.983401256</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.746098041534424</v>
+        <v>122425.8628016411</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.378835439682007</v>
+        <v>115389.14287033</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2.001620292663574</v>
+        <v>108161.7330278117</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1.647280693054199</v>
+        <v>101372.6167103653</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>1.554964780807495</v>
+        <v>99603.85175469852</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1.300267219543457</v>
+        <v>94723.86834020651</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.986782431602478</v>
+        <v>88717.52670797698</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.4369933903217316</v>
+        <v>78183.6158624854</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.06476633250713348</v>
+        <v>71051.77738101159</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.03484966978430748</v>
+        <v>70478.57669082911</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.0769885927438736</v>
+        <v>71285.95483817643</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.09982599318027496</v>
+        <v>71723.51747052616</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-0.2398550361394882</v>
+        <v>65215.25810176216</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-0.5075490474700928</v>
+        <v>60086.26381941041</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.06225049868226051</v>
+        <v>71003.57422084756</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.5083844065666199</v>
+        <v>79551.46160662906</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>1.093619704246521</v>
+        <v>90764.51968256618</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.9341571927070618</v>
+        <v>87709.23164728307</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1.318540811538696</v>
+        <v>95073.98879451081</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1.736791610717773</v>
+        <v>103087.6382105569</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.394856452941895</v>
+        <v>115696.1041093917</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.727911472320557</v>
+        <v>122077.4096963592</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.701278209686279</v>
+        <v>121567.1186700766</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.236813306808472</v>
+        <v>112668.0109934717</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1.935766220092773</v>
+        <v>106899.9746492573</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2.03949761390686</v>
+        <v>108887.4592520255</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1.914796471595764</v>
+        <v>106498.1960677758</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1.479604840278625</v>
+        <v>98159.96176190529</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1.042688965797424</v>
+        <v>89788.69110499388</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.7811071872711182</v>
+        <v>84776.80667859229</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.6186870336532593</v>
+        <v>81664.85047492561</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.3925366401672363</v>
+        <v>77331.82834500993</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.128576248884201</v>
+        <v>72274.369902333</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>-0.2391664087772369</v>
+        <v>65228.4521429217</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>-0.289264589548111</v>
+        <v>64268.57529901017</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>-0.1930090636014938</v>
+        <v>66112.82291505132</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>-0.1491734981536865</v>
+        <v>66952.7085868596</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-0.1933679580688477</v>
+        <v>66105.94652785882</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>-0.4911917448043823</v>
+        <v>60399.66833462578</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>-0.2829022109508514</v>
+        <v>64390.4779268848</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.3606128096580505</v>
+        <v>76720.17049230525</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.6009533405303955</v>
+        <v>81325.07443667941</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.5976858735084534</v>
+        <v>81262.47004896819</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.02514861896634102</v>
+        <v>70292.70538974609</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>-0.0776313841342926</v>
+        <v>68323.44935139488</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.5411545038223267</v>
+        <v>80179.33385756654</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.6267701387405396</v>
+        <v>81819.7220746683</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.5805539488792419</v>
+        <v>80934.22384341378</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.2448683679103851</v>
+        <v>74502.51692214522</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.03592624887824059</v>
+        <v>70499.20385387185</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.2124563753604889</v>
+        <v>73881.50592663686</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.4310710728168488</v>
+        <v>78070.14476737262</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.5645532011985779</v>
+        <v>80627.65089111069</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.4018107056617737</v>
+        <v>77509.5186439419</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.1405878514051437</v>
+        <v>72504.51117574277</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.02794255688786507</v>
+        <v>70346.23700053376</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.05500009283423424</v>
+        <v>70864.65706706286</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.04746190086007118</v>
+        <v>70720.22595580053</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>-0.03685672581195831</v>
+        <v>69104.68830538038</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-0.2779494524002075</v>
+        <v>64485.37235564641</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-0.3765920102596283</v>
+        <v>62595.3894130221</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>-0.2042567133903503</v>
+        <v>65897.31891042234</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.04576699063181877</v>
+        <v>70687.75162129228</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.3147027194499969</v>
+        <v>75840.53710413598</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-0.3202208578586578</v>
+        <v>63675.45585499073</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>-0.4780536592006683</v>
+        <v>60651.39292722144</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.2683200538158417</v>
+        <v>74951.84921136123</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.6546951532363892</v>
+        <v>82354.76295575441</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.8566035032272339</v>
+        <v>86223.30961286719</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.358912467956543</v>
+        <v>76687.59209123558</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.1273435652256012</v>
+        <v>72250.75178922885</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.3437100052833557</v>
+        <v>76396.31421116322</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.5554848909378052</v>
+        <v>80453.90284479877</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.6596118211746216</v>
+        <v>82448.96589147969</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.4244807660579681</v>
+        <v>77943.87505548318</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.3247721195220947</v>
+        <v>76033.46594531472</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.4824382960796356</v>
+        <v>79054.33635651408</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.5268130898475647</v>
+        <v>79904.55359665683</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.4121737778186798</v>
+        <v>77708.07421706128</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.1055832207202911</v>
+        <v>71833.82545608089</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>-0.1688708662986755</v>
+        <v>66575.30870372118</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>-0.1884357631206512</v>
+        <v>66200.44695976238</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-0.1200165897607803</v>
+        <v>67511.35244928647</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-0.07253610342741013</v>
+        <v>68421.07449243811</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-0.2300097644329071</v>
+        <v>65403.89266269334</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-0.6257917284965515</v>
+        <v>57820.7441990792</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-0.4958806931972504</v>
+        <v>60309.82848584574</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.04346054419875145</v>
+        <v>70643.56030558464</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.4284601807594299</v>
+        <v>78020.12029963135</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.5520484447479248</v>
+        <v>80388.06083073243</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.4819125235080719</v>
+        <v>79044.26259916717</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.8271944522857666</v>
+        <v>85659.83472084995</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1.722756147384644</v>
+        <v>102818.7199376828</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.153424739837646</v>
+        <v>111070.2932071046</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.100038528442383</v>
+        <v>110047.4179786238</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1.885451674461365</v>
+        <v>105935.9522731874</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1.749251365661621</v>
+        <v>103326.366045927</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1.855248332023621</v>
+        <v>105357.2588242713</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1.67949366569519</v>
+        <v>101989.8145014998</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>1.235236525535583</v>
+        <v>93477.88582425167</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.793274998664856</v>
+        <v>85009.94090059825</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.4561133980751038</v>
+        <v>78549.95357007219</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.2924509942531586</v>
+        <v>75414.1959591109</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.1884662806987762</v>
+        <v>73421.85777185972</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.03385759517550468</v>
+        <v>70459.5686264689</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-0.2687610387802124</v>
+        <v>64661.42157201321</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-0.359861820936203</v>
+        <v>62915.93840459642</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-0.2598548233509064</v>
+        <v>64832.06389526596</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-0.2477633059024811</v>
+        <v>65063.73633182763</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-0.2046374082565308</v>
+        <v>65890.02482945933</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-0.5235934257507324</v>
+        <v>59778.85490855636</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>-0.4369116425514221</v>
+        <v>61439.67043522216</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.8122920393943787</v>
+        <v>85374.3057688452</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>1.176146984100342</v>
+        <v>92345.73528169116</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1.747200965881348</v>
+        <v>103287.0805621118</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1.593353867530823</v>
+        <v>100339.3833615879</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>1.579912900924683</v>
+        <v>100081.8555949804</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>1.751586079597473</v>
+        <v>103371.098964562</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>1.938257575035095</v>
+        <v>106947.7087961326</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1.971669554710388</v>
+        <v>107587.87945914</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>1.881129145622253</v>
+        <v>105853.1329916095</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>1.71356987953186</v>
+        <v>102642.7118340316</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1.280130505561829</v>
+        <v>94338.05062854478</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.8956867456436157</v>
+        <v>86972.1411832598</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>0.583231508731842</v>
+        <v>80985.52566038899</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.2865521013736725</v>
+        <v>75301.17367781032</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.06615473330020905</v>
+        <v>71078.37902104792</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-0.06732187420129776</v>
+        <v>68520.97867690107</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-0.1441719233989716</v>
+        <v>67048.53832990158</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-0.1792955696582794</v>
+        <v>66375.57228204761</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>-0.1466222703456879</v>
+        <v>67001.58989270264</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>-0.1977325081825256</v>
+        <v>66022.32212226669</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>-0.2633959650993347</v>
+        <v>64764.21592328329</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>-0.2595501840114594</v>
+        <v>64837.90075886421</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>-0.01375203765928745</v>
+        <v>69547.37214743395</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.1424550265073776</v>
+        <v>72540.28609045193</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.5633965730667114</v>
+        <v>80605.48999537133</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.6312246918678284</v>
+        <v>81905.07093027674</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1.113494157791138</v>
+        <v>91145.31250676319</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1.26404869556427</v>
+        <v>94029.92452920713</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>1.525399684906006</v>
+        <v>99037.38705463975</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1.583800315856934</v>
+        <v>100156.3381314463</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1.880890846252441</v>
+        <v>105848.5671961359</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1.980873227119446</v>
+        <v>107764.2210325957</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.015179395675659</v>
+        <v>108421.5242778181</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1.922698736190796</v>
+        <v>106649.6027792076</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>1.797748684883118</v>
+        <v>104255.5705199458</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>1.61840832233429</v>
+        <v>100819.4245653327</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>1.345155596733093</v>
+        <v>95583.92579463104</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>1.088604807853699</v>
+        <v>90668.4346980814</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.813631534576416</v>
+        <v>85399.97038157134</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.5579033493995667</v>
+        <v>80500.24030136279</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.3367449939250946</v>
+        <v>76262.86519130853</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.16786889731884</v>
+        <v>73027.2136740632</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.1113627851009369</v>
+        <v>71944.56141358502</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.05036522075533867</v>
+        <v>70775.85331581745</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-0.002327989786863327</v>
+        <v>69766.25592420479</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>-0.04153213649988174</v>
+        <v>69015.1078378652</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.1045341789722443</v>
+        <v>71813.72590622194</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.3246360123157501</v>
+        <v>76030.85814292252</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.8131752610206604</v>
+        <v>85391.22821940258</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>1.006905317306519</v>
+        <v>89103.07947102694</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>1.550258159637451</v>
+        <v>99513.67329702456</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>1.587472915649414</v>
+        <v>100226.7048282707</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>1.550823092460632</v>
+        <v>99524.49736143155</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1.789237141609192</v>
+        <v>104092.4900813176</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1.917311429977417</v>
+        <v>106546.3824545229</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1.946041107177734</v>
+        <v>107096.8406039667</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1.872884273529053</v>
+        <v>105695.161949917</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1.731277704238892</v>
+        <v>102981.9922356506</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1.508931636810303</v>
+        <v>98721.86066649041</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>1.253038644790649</v>
+        <v>93818.97290131822</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>1.002328753471375</v>
+        <v>89015.39290072753</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.8085486888885498</v>
+        <v>85302.58349442523</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.6443511247634888</v>
+        <v>82156.57225798619</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0.3689310848712921</v>
+        <v>76879.54793147795</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.1439950913190842</v>
+        <v>72569.79360006872</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.001997638493776321</v>
+        <v>69849.13459081635</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>-0.006500441581010818</v>
+        <v>69686.3121059281</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>-0.03279627487063408</v>
+        <v>69182.4861969294</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>-0.1372292190790176</v>
+        <v>67181.55994881679</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>-0.2252413034439087</v>
+        <v>65495.25596599109</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>-0.09922125935554504</v>
+        <v>67909.789195099</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.08631791174411774</v>
+        <v>71464.70378953565</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>0.6100612878799438</v>
+        <v>81499.58192621043</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.5328472256660461</v>
+        <v>80020.16712106139</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.8929114937782288</v>
+        <v>86918.96759570397</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.9809545278549194</v>
+        <v>88605.86457235151</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.9608801603317261</v>
+        <v>88221.24141348252</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>1.258608937263489</v>
+        <v>93925.69922702947</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1.396640419960022</v>
+        <v>96570.37058899249</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>1.320333003997803</v>
+        <v>95108.32704821302</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1.296319007873535</v>
+        <v>94648.22094346466</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1.306397676467896</v>
+        <v>94841.32736873448</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>1.184468746185303</v>
+        <v>92505.17952902676</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>1.031193971633911</v>
+        <v>89568.44800337472</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.8618285655975342</v>
+        <v>86323.42135944305</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.5833324193954468</v>
+        <v>80987.45910004302</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>0.01766457036137581</v>
+        <v>70149.31166079074</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>-0.4988653361797333</v>
+        <v>60252.64298245728</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>-0.807289183139801</v>
+        <v>54343.26854506857</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>-0.9634925127029419</v>
+        <v>51350.42615673359</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>-1.024205565452576</v>
+        <v>50187.16927672661</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>-1.111308693885803</v>
+        <v>48518.28081154077</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>-1.195953369140625</v>
+        <v>46896.49609825731</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>-1.118393182754517</v>
+        <v>48382.54261283993</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>-0.9790796041488647</v>
+        <v>51051.77882238624</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>-0.8452538251876831</v>
+        <v>53615.86926173295</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>-0.6947205662727356</v>
+        <v>56500.07358308032</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.01976146176457405</v>
+        <v>70189.48792011106</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.4308232963085175</v>
+        <v>78065.39739073832</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.2650795876979828</v>
+        <v>74889.76215865489</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>-0.4785386621952057</v>
+        <v>60642.10031147132</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>-0.3610478937625885</v>
+        <v>62893.21335103715</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.05283234640955925</v>
+        <v>70823.12323161215</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.05950550362467766</v>
+        <v>70950.98035113249</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>-0.165784940123558</v>
+        <v>66634.43478438792</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>-0.5867366790771484</v>
+        <v>58569.03559406933</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>-0.7070832848548889</v>
+        <v>56263.20495607216</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>-0.539218544960022</v>
+        <v>59479.47896552664</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>-0.4725916087627411</v>
+        <v>60756.0453448336</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>-0.4644865095615387</v>
+        <v>60911.33834991141</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>-0.6472302079200745</v>
+        <v>57409.98477327431</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>-0.7335542440414429</v>
+        <v>55756.02364991837</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>-0.4450201988220215</v>
+        <v>61284.31119299142</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>-0.3363515734672546</v>
+        <v>63366.39272834291</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>-0.2391186058521271</v>
+        <v>65229.36804286414</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>-0.5299760103225708</v>
+        <v>59656.56513594298</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>-0.7717474102973938</v>
+        <v>55024.24586236916</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>-0.5274308323860168</v>
+        <v>59705.33052676837</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>-0.2531147301197052</v>
+        <v>64961.20350310969</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.02015289291739464</v>
+        <v>70196.98770740467</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>-0.5782661437988281</v>
+        <v>58731.33032302129</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>-0.9492624402046204</v>
+        <v>51623.07312451056</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>-0.1574251353740692</v>
+        <v>66794.60792591088</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.02121157571673393</v>
+        <v>70217.27197897894</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>-0.2915940582752228</v>
+        <v>64223.94287812453</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>-0.7385489940643311</v>
+        <v>55660.32466815246</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>-0.7587296366691589</v>
+        <v>55273.66528784038</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>-0.5022078156471252</v>
+        <v>60188.60136272915</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>-0.385758638381958</v>
+        <v>62419.75760492084</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>-0.4134934842586517</v>
+        <v>61888.36033825659</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>-0.5227259397506714</v>
+        <v>59795.47586586586</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>-0.485758513212204</v>
+        <v>60503.76858562676</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>-0.2720818817615509</v>
+        <v>64597.79450550092</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>-0.1206733137369156</v>
+        <v>67498.76967426682</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>-0.0877639502286911</v>
+        <v>68129.31025465007</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>-0.2882907390594482</v>
+        <v>64287.23419079258</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>-0.4456514120101929</v>
+        <v>61272.2172024797</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>-0.3608477413654327</v>
+        <v>62897.04825378865</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>-0.2699099183082581</v>
+        <v>64639.40913885803</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>-0.1989477127790451</v>
+        <v>65999.03890649187</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>-0.5480226874351501</v>
+        <v>59310.79235131555</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>-0.89466392993927</v>
+        <v>52669.17589529708</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>-0.4883222877979279</v>
+        <v>60454.64688459932</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>-0.1232839524745941</v>
+        <v>67448.75006011003</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.1734643578529358</v>
+        <v>73134.42221766808</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>-0.6869034767150879</v>
+        <v>56649.84834810594</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>-0.816016674041748</v>
+        <v>54176.05056842104</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>-0.1149311810731888</v>
+        <v>67608.78844328735</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.2985954880714417</v>
+        <v>75531.92393332023</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.2540375888347626</v>
+        <v>74678.19840811119</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>-0.1507274210453033</v>
+        <v>66922.93555762111</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>-0.2932264804840088</v>
+        <v>64192.66580870624</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>-0.05782973766326904</v>
+        <v>68702.84719831048</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.09050078690052032</v>
+        <v>71544.84731853855</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.194375216960907</v>
+        <v>73535.07248350981</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>-0.01061486825346947</v>
+        <v>69607.48004400299</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>-0.1662295609712601</v>
+        <v>66625.91588710538</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>-0.0129931103438139</v>
+        <v>69561.91312966376</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.07727961242198944</v>
+        <v>71291.53075023247</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.04171779379248619</v>
+        <v>70610.16935737153</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>-0.3090262115001678</v>
+        <v>63889.94431844288</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>-0.5082980394363403</v>
+        <v>60071.91319761907</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>-0.388742208480835</v>
+        <v>62362.59265789019</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>-0.3180055916309357</v>
+        <v>63717.90016578946</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>-0.3087680339813232</v>
+        <v>63894.89097754595</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>-0.7260202169418335</v>
+        <v>55900.37496254171</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>-0.8693166971206665</v>
+        <v>53154.82670068435</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>-0.3212726712226868</v>
+        <v>63655.30320120744</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>0.1850736737251282</v>
+        <v>73356.85571341391</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.5150489211082458</v>
+        <v>79679.15313326704</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>-0.04242235422134399</v>
+        <v>68998.0513427246</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>-0.4037394523620605</v>
+        <v>62075.24675225899</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>-0.2788451015949249</v>
+        <v>64468.21179394439</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.6894876956939697</v>
+        <v>83021.38508318417</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1.053810119628906</v>
+        <v>90001.77145793603</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.9304115772247314</v>
+        <v>87637.46597610773</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>0.6265618801116943</v>
+        <v>81815.73185721335</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.4554384350776672</v>
+        <v>78537.02133696976</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.3286255598068237</v>
+        <v>76107.29753045</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.4484924674034119</v>
+        <v>78403.93719246623</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.3514125645160675</v>
+        <v>76543.89458499259</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.1890467554330826</v>
+        <v>73432.97961795</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>-0.1581546515226364</v>
+        <v>66780.63045911479</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>-0.4021746218204498</v>
+        <v>62105.22877113523</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>-0.2812821269035339</v>
+        <v>64421.51859818827</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>-0.2692651748657227</v>
+        <v>64651.76236788213</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>-0.2690201103687286</v>
+        <v>64656.45778261196</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>-0.5201277136802673</v>
+        <v>59845.25765438298</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>-0.8465464115142822</v>
+        <v>53591.10341865107</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>-0.7116380929946899</v>
+        <v>56175.93522302835</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>-0.3873145878314972</v>
+        <v>62389.94574700647</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>-0.06255549192428589</v>
+        <v>68612.30215225556</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>-0.09867921471595764</v>
+        <v>67920.17472387271</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>-0.5237531065940857</v>
+        <v>59775.79543730227</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.0152081586420536</v>
+        <v>70102.24702306918</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.7014402747154236</v>
+        <v>83250.39547140941</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1.02856707572937</v>
+        <v>89518.11690329612</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.7566719055175781</v>
+        <v>84308.62877734377</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>0.4795795381069183</v>
+        <v>78999.56279910869</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.613677978515625</v>
+        <v>81568.8774083889</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.9332001805305481</v>
+        <v>87690.8953761163</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.9046787619590759</v>
+        <v>87144.42744412743</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.6233060359954834</v>
+        <v>81753.3501633784</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.3139282464981079</v>
+        <v>75825.69826884665</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>0.2916324436664581</v>
+        <v>75398.51260012152</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>0.262279748916626</v>
+        <v>74836.11748789926</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.2650664746761322</v>
+        <v>74889.51091428165</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.001872867345809937</v>
+        <v>69846.74398632975</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>-0.2837423086166382</v>
+        <v>64374.38172770941</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>-0.2255534529685974</v>
+        <v>65489.27520788817</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>-0.1125093847513199</v>
+        <v>67655.18985296456</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>-0.04323142766952515</v>
+        <v>68982.54956489589</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>-0.2945258915424347</v>
+        <v>64167.76920434829</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>-0.6248397827148438</v>
+        <v>57838.98339855631</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>-0.3177342116832733</v>
+        <v>63723.09978229558</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>0.1988247334957123</v>
+        <v>73620.32483843852</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>0.5980042219161987</v>
+        <v>81268.56957713845</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.3829655945301056</v>
+        <v>77148.44793203406</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.1037261635065079</v>
+        <v>71798.24439924606</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>0.0655113160610199</v>
+        <v>71066.05120196611</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>1.052425742149353</v>
+        <v>89975.24690424149</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>1.487495303153992</v>
+        <v>98311.14235340114</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>1.538547873497009</v>
+        <v>99289.30521960481</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>1.119596719741821</v>
+        <v>91262.2370699881</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.8584896326065063</v>
+        <v>86259.44768989767</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>0.756805419921875</v>
+        <v>84311.18690187126</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.8867970705032349</v>
+        <v>86801.81577052327</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>0.8403220176696777</v>
+        <v>85911.35774693708</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>0.4173785150051117</v>
+        <v>77807.7965348586</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>0.005877774208784103</v>
+        <v>69923.47765810463</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>-0.1618591547012329</v>
+        <v>66709.65249615055</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>-0.2155294716358185</v>
+        <v>65681.33382991962</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>-0.2681697010993958</v>
+        <v>64672.75155122631</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>-0.4103022813796997</v>
+        <v>61949.50351153348</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>-0.6447683572769165</v>
+        <v>57457.15362030977</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>-0.6184608340263367</v>
+        <v>57961.20350795712</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>-0.3214353621006012</v>
+        <v>63652.18605794949</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>-0.05127106979489326</v>
+        <v>68828.51071177324</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>0.02762914821505547</v>
+        <v>70340.23211726091</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>-0.293726772069931</v>
+        <v>64183.08026485732</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>-0.1052065491676331</v>
+        <v>67795.11155598474</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>0.153307780623436</v>
+        <v>72748.22392788187</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>0.4694558680057526</v>
+        <v>78805.59414883071</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0.3185389041900635</v>
+        <v>75914.03807451647</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0.07993847131729126</v>
+        <v>71342.47425847083</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>0.1122018545866013</v>
+        <v>71960.6379129175</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>0.4531468152999878</v>
+        <v>78493.11409870686</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>0.7594988346099854</v>
+        <v>84362.79249613412</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>0.7019609808921814</v>
+        <v>83260.37215706667</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>0.5043156147003174</v>
+        <v>79473.50390367331</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.2498146593570709</v>
+        <v>74597.28744175003</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0.1084904819726944</v>
+        <v>71889.52833216227</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>0.10190150141716</v>
+        <v>71763.28403021513</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>0.01283250376582146</v>
+        <v>70056.7296795303</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>-0.07099513709545135</v>
+        <v>68450.59927510556</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>-0.3237910866737366</v>
+        <v>63607.05057730743</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>-0.5208622217178345</v>
+        <v>59831.18454342209</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>-0.4704842865467072</v>
+        <v>60796.42145763265</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>-0.430062860250473</v>
+        <v>61570.89251631406</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>-0.4748180210590363</v>
+        <v>60713.38747631763</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>-0.8492864370346069</v>
+        <v>53538.60476484335</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>-1.103609561920166</v>
+        <v>48665.79551922713</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>-0.7310327887535095</v>
+        <v>55804.33451683218</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>-0.401456207036972</v>
+        <v>62118.99353672897</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>-0.1245028227567673</v>
+        <v>67425.3966101127</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>-0.8956192135810852</v>
+        <v>52650.87274270678</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>-0.3014219999313354</v>
+        <v>64035.64035947298</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>0.1231500953435898</v>
+        <v>72170.40526619257</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>0.234068751335144</v>
+        <v>74295.59719543683</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>0.21811842918396</v>
+        <v>73989.99039195082</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>0.1573178172111511</v>
+        <v>72825.05588474256</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>-0.3219292163848877</v>
+        <v>63642.72385224742</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>-0.5924186706542969</v>
+        <v>58460.16912310606</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>-0.7169167995452881</v>
+        <v>56074.79565856198</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>-0.7483834028244019</v>
+        <v>55471.89824034412</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>-0.7270568013191223</v>
+        <v>55880.51409483734</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>-0.5769086480140686</v>
+        <v>58757.3398257507</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>-0.4095403850078583</v>
+        <v>61964.10138062847</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>-0.2917042672634125</v>
+        <v>64221.83128336946</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>-0.4077128767967224</v>
+        <v>61999.1162811086</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>-0.5926862955093384</v>
+        <v>58455.04145385227</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>-0.6006205677986145</v>
+        <v>58303.02147774582</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>-0.4925327599048615</v>
+        <v>60373.97460039274</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>-0.4878516495227814</v>
+        <v>60463.66427355877</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>-0.6716926693916321</v>
+        <v>56941.28611096126</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>-0.9731662273406982</v>
+        <v>51165.07861451728</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>-0.8760612010955811</v>
+        <v>53025.60258336962</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>-0.379081517457962</v>
+        <v>62547.69066876308</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>-0.08271387964487076</v>
+        <v>68226.06917361557</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>-0.1832601428031921</v>
+        <v>66299.61140084914</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>-0.7027375102043152</v>
+        <v>56346.46962540259</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>-0.8369117975234985</v>
+        <v>53775.70179582719</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>-0.171434685587883</v>
+        <v>66526.18614617884</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>0.1334847211837769</v>
+        <v>72368.41581032499</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>0.07980974018573761</v>
+        <v>71340.00778103857</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>-0.3122990429401398</v>
+        <v>63827.23714894261</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>-0.457775741815567</v>
+        <v>61039.91608397499</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>-0.2891428470611572</v>
+        <v>64270.9078746117</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>-0.207234799861908</v>
+        <v>65840.2590292205</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>-0.1343391984701157</v>
+        <v>67236.93249564838</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>-0.3626576364040375</v>
+        <v>62862.37082018257</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>-0.5727981328964233</v>
+        <v>58836.0969426213</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>-0.4475428760051727</v>
+        <v>61235.9769146701</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>-0.3099372684955597</v>
+        <v>63872.48854460232</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>-0.2559680640697479</v>
+        <v>64906.53386951324</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>-0.5349283814430237</v>
+        <v>59561.67813031058</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>-0.7699280977249146</v>
+        <v>55059.10373511602</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>-0.7253903150558472</v>
+        <v>55912.4438286161</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>-0.6577981114387512</v>
+        <v>57207.504648843</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>-0.5040391683578491</v>
+        <v>60153.51280196688</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>-0.5271600484848022</v>
+        <v>59710.51872307571</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>-0.6113877892494202</v>
+        <v>58096.72243884131</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>-0.102194607257843</v>
+        <v>67852.82010447749</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.2291834950447083</v>
+        <v>74201.99610418745</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>0.418782651424408</v>
+        <v>77834.69966814281</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>0.09977453947067261</v>
+        <v>71722.53162186618</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>0.4191272258758545</v>
+        <v>77841.30168505956</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>0.9439353942871094</v>
+        <v>87896.58115034614</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>1.126023888587952</v>
+        <v>91385.38107347049</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>1.190954804420471</v>
+        <v>92629.45184814896</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>0.855310320854187</v>
+        <v>86198.53234958653</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>0.6257355809211731</v>
+        <v>81799.9000356398</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.3752827346324921</v>
+        <v>77001.24499577448</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>0.1826320141553879</v>
+        <v>73310.07372561224</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>0.1358680129051208</v>
+        <v>72414.07947516078</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>-0.01615374535322189</v>
+        <v>69501.35563414388</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>-0.1433732807636261</v>
+        <v>67063.84025425158</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>-0.390278548002243</v>
+        <v>62333.1565245158</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>-0.5663118362426758</v>
+        <v>58960.37382982301</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>-0.4449294209480286</v>
+        <v>61286.05048926614</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>-0.3395139873027802</v>
+        <v>63305.80115066727</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>-0.3349234163761139</v>
+        <v>63393.75609563809</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>-0.807288646697998</v>
+        <v>54343.27882324747</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>-1.006158113479614</v>
+        <v>50532.95690761245</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>-0.4349256455898285</v>
+        <v>61477.72196655882</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>-0.07123060524463654</v>
+        <v>68446.08772557614</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0.2435401380062103</v>
+        <v>74477.06815117609</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>-0.3452329337596893</v>
+        <v>63196.22662737942</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>-0.2720066905021667</v>
+        <v>64599.23516357745</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>0.5191717147827148</v>
+        <v>79758.14550623257</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>1.20440673828125</v>
+        <v>92887.18974641408</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>1.318828582763672</v>
+        <v>95079.50246648348</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>0.8341426253318787</v>
+        <v>85792.96112008899</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>0.5466805100440979</v>
+        <v>80285.21166250817</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0.3876959085464478</v>
+        <v>77239.08034260967</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0.5124313831329346</v>
+        <v>79629.00133030934</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.6324433088302612</v>
+        <v>81928.41952668958</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.2920386791229248</v>
+        <v>75406.29603660242</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>-0.1314947307109833</v>
+        <v>67291.43225378792</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>-0.3258556425571442</v>
+        <v>63567.49386377111</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>-0.2616533041000366</v>
+        <v>64797.60515846659</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>-0.2500936985015869</v>
+        <v>65019.08620963388</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>-0.5136434435844421</v>
+        <v>59969.49571290884</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>-0.770417332649231</v>
+        <v>55049.73003595453</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>-0.6809771656990051</v>
+        <v>56763.39595855057</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>-0.5718502402305603</v>
+        <v>58854.25848474668</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>-0.5906994342803955</v>
+        <v>58493.10954447716</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>-0.8075273036956787</v>
+        <v>54338.70617565456</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>-0.9703724980354309</v>
+        <v>51218.60622823537</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>-0.508348822593689</v>
+        <v>60070.94019668271</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>0.003959286957979202</v>
+        <v>69886.71960703269</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>0.09483906626701355</v>
+        <v>71627.96837886929</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>-0.03031961992383003</v>
+        <v>69229.93869315213</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>0.02808723226189613</v>
+        <v>70349.00896828348</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>0.6474164128303528</v>
+        <v>82215.30291427005</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>1.250834465026855</v>
+        <v>93776.74100621688</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>1.316530346870422</v>
+        <v>95035.46846401409</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>1.179815649986267</v>
+        <v>92416.02660520356</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>0.8421403765678406</v>
+        <v>85946.19734736589</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>0.6617794632911682</v>
+        <v>82490.49772839561</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0.423434317111969</v>
+        <v>77923.82518348895</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>0.219609409570694</v>
+        <v>74018.5574481978</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>0.1277205348014832</v>
+        <v>72257.97449394947</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>0.08285753428936005</v>
+        <v>71398.40325448813</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>-0.06053401529788971</v>
+        <v>68651.03347092481</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>-0.2338701784610748</v>
+        <v>65329.92746123229</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>-0.2857943773269653</v>
+        <v>64335.0642673376</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>-0.2259005010128021</v>
+        <v>65482.62579714649</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>-0.1766381561756134</v>
+        <v>66426.48809630392</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>-0.2450147420167923</v>
+        <v>65116.39857998292</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>-0.654147744178772</v>
+        <v>57277.44537225274</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>-0.7473548650741577</v>
+        <v>55491.60493536491</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>-0.3026565909385681</v>
+        <v>64011.98570173273</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>0.09109213948249817</v>
+        <v>71556.17758325662</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>0.2145662009716034</v>
+        <v>73921.93000427079</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>-0.2514641582965851</v>
+        <v>64992.82831758093</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>0.03335127606987953</v>
+        <v>70449.86759585977</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>0.04828115925192833</v>
+        <v>70735.92287627594</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>0.2789611518383026</v>
+        <v>75155.73173620315</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>0.8149884939193726</v>
+        <v>85425.96960612184</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>1.144925475120544</v>
+        <v>91747.53384921307</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>1.124001502990723</v>
+        <v>91346.6323389981</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>0.7899932265281677</v>
+        <v>84947.06242811622</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>0.5897825360298157</v>
+        <v>81111.04278117859</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>0.3454212546348572</v>
+        <v>76429.10160187063</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>0.1301266700029373</v>
+        <v>72304.07583790364</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>0.09763279557228088</v>
+        <v>71681.4959925874</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>0.04956618323922157</v>
+        <v>70760.54382558576</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>-0.009445410221815109</v>
+        <v>69629.88675952118</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>-0.2650758326053619</v>
+        <v>64732.02980604184</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>-0.5906310081481934</v>
+        <v>58494.42058329751</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>-0.6669720411300659</v>
+        <v>57031.73294330664</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>-0.6174693703651428</v>
+        <v>57980.19986661358</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>-0.5747926235198975</v>
+        <v>58797.88267345198</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>-0.8230410218238831</v>
+        <v>54041.46466777747</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>-1.170707821846008</v>
+        <v>47380.19861773211</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>-0.9684684276580811</v>
+        <v>51255.08805324924</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>-0.4210474789142609</v>
+        <v>61743.62644897401</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>0.009270358830690384</v>
+        <v>69988.47928829301</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>0.016197819262743</v>
+        <v>70121.20883562432</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>-0.2948138117790222</v>
+        <v>64162.25267732592</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>-0.1201442331075668</v>
+        <v>67508.90681371698</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>0.5931714177131653</v>
+        <v>81175.97346338202</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>1.156295657157898</v>
+        <v>91965.38556120696</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>1.197555422782898</v>
+        <v>92755.91912947736</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>0.91083163022995</v>
+        <v>87262.31587212966</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>0.7323975563049316</v>
+        <v>83843.53432976679</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>0.7076280117034912</v>
+        <v>83368.95198104047</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0.4662016332149506</v>
+        <v>78743.24328953249</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>0.151158481836319</v>
+        <v>72707.04354758351</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>0.06321026384830475</v>
+        <v>71021.96323905747</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>-0.02968478575348854</v>
+        <v>69242.10206137146</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>-0.1136122345924377</v>
+        <v>67634.05934466043</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>-0.394644558429718</v>
+        <v>62249.50413943666</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>-0.6364938020706177</v>
+        <v>57615.69338790172</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>-0.5402446389198303</v>
+        <v>59459.81909332085</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>-0.4654916226863861</v>
+        <v>60892.08046870281</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>-0.4282372295856476</v>
+        <v>61605.87144316801</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>-0.7438425421714783</v>
+        <v>55558.9007407364</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-0.9678193926811218</v>
+        <v>51267.52350770458</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>-0.6543827652931213</v>
+        <v>57272.94238787241</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>-0.2132388651371002</v>
+        <v>65725.22165384458</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>0.05561215803027153</v>
+        <v>70876.38418368866</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>-0.2691935896873474</v>
+        <v>64653.13393375603</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>-0.8092013597488403</v>
+        <v>54306.63140535125</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>-0.7323578000068665</v>
+        <v>55778.94741493648</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>-0.09839428216218948</v>
+        <v>67925.63400714866</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>0.2508517205715179</v>
+        <v>74617.15744561343</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>0.1383273005485535</v>
+        <v>72461.19921534146</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>-0.210317924618721</v>
+        <v>65781.18662348804</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>-0.429680347442627</v>
+        <v>61578.22142888336</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>-0.2580332458019257</v>
+        <v>64866.96516476819</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>-0.1081858426332474</v>
+        <v>67738.02854888036</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>0.0264093391597271</v>
+        <v>70316.8606804505</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>-0.1243212521076202</v>
+        <v>67428.87548816712</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>-0.2180652916431427</v>
+        <v>65632.74773621513</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>-0.1277589946985245</v>
+        <v>67363.00863516843</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>-0.02738603204488754</v>
+        <v>69286.14598513854</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>-0.0943463146686554</v>
+        <v>68003.19271690943</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>-0.3642515540122986</v>
+        <v>62831.8314956057</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>-0.5039531588554382</v>
+        <v>60155.16073665133</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>-0.4484354555606842</v>
+        <v>61218.87516699183</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>-0.4223733842372894</v>
+        <v>61718.22221678013</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>-0.2952516078948975</v>
+        <v>64153.86454131945</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>-0.4912517070770264</v>
+        <v>60398.51946262816</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>-0.4529573023319244</v>
+        <v>61132.23697094074</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>0.1962948590517044</v>
+        <v>73571.85266121689</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>0.3911661505699158</v>
+        <v>77305.56988194704</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>0.1973761022090912</v>
+        <v>73592.56918731512</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>-0.6627609133720398</v>
+        <v>57112.41778973189</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>-0.9437685608863831</v>
+        <v>51728.33538073776</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>-0.4496643245220184</v>
+        <v>61195.3301431599</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>-0.1524488776922226</v>
+        <v>66889.95259600953</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>0.001441553235054016</v>
+        <v>69838.48004498504</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>-0.3636227250099182</v>
+        <v>62843.87980532229</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>-0.5293464660644531</v>
+        <v>59668.6271498981</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>-0.38919997215271</v>
+        <v>62353.82194522447</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>-0.1202823668718338</v>
+        <v>67506.26018264891</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>-0.01365889608860016</v>
+        <v>69549.15673193449</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>-0.06959634274244308</v>
+        <v>68477.40005485818</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>-0.2945737540721893</v>
+        <v>64166.85216238597</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>-0.3378981053829193</v>
+        <v>63336.76130956932</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>-0.2679705917835236</v>
+        <v>64676.56646862994</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>-0.2799637317657471</v>
+        <v>64446.77893587748</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>-0.3283024728298187</v>
+        <v>63520.612805745</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>-0.5969152450561523</v>
+        <v>58374.0151434834</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>-0.7012999653816223</v>
+        <v>56374.01286082862</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>-0.4609048962593079</v>
+        <v>60979.96175339147</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>-0.1837107241153717</v>
+        <v>66290.97830157877</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>-0.02935332618653774</v>
+        <v>69248.45279822685</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>-0.4320566654205322</v>
+        <v>61532.69138037334</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0.112374022603035</v>
+        <v>71963.93663733611</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>0.7435716986656189</v>
+        <v>84057.62993838079</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>1.225354552268982</v>
+        <v>93288.54806458039</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>0.953832745552063</v>
+        <v>88086.21355114604</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>0.8547021150588989</v>
+        <v>86186.87917874785</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>1.322499632835388</v>
+        <v>95149.839470791</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>1.454420804977417</v>
+        <v>97677.43780694493</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>1.353327870368958</v>
+        <v>95740.50585611175</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>0.992784857749939</v>
+        <v>88832.53267780626</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>0.6675679683685303</v>
+        <v>82601.40498888149</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>0.3457785844802856</v>
+        <v>76435.94801104133</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>0.2015729993581772</v>
+        <v>73672.98137649441</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>0.2578716576099396</v>
+        <v>74751.65883678601</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>0.2137099504470825</v>
+        <v>73905.52431770836</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>0.01715513691306114</v>
+        <v>70139.55095964298</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>-0.3303582370281219</v>
+        <v>63481.22454014073</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>-0.3590700924396515</v>
+        <v>62931.10785464053</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>-0.21640844643116</v>
+        <v>65664.49274827857</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>-0.1187925934791565</v>
+        <v>67534.80411299334</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="n">
-        <v>-0.1131525933742523</v>
+        <v>67642.86603095231</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="n">
-        <v>-0.1141979396343231</v>
+        <v>67622.83728632583</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>0.05461575463414192</v>
+        <v>70857.29318013479</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>0.2115855813026428</v>
+        <v>73864.82158722411</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>0.6701570749282837</v>
+        <v>82651.01204835722</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>0.8085081577301025</v>
+        <v>85301.80692090795</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>0.5117587447166443</v>
+        <v>79616.11363598217</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>0.367055743932724</v>
+        <v>76843.61656004546</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="n">
-        <v>0.7297062873840332</v>
+        <v>83791.96984821957</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="n">
-        <v>1.103593349456787</v>
+        <v>90955.61386881035</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>1.292319059371948</v>
+        <v>94571.5822734684</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>1.322547078132629</v>
+        <v>95150.74851861417</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="n">
-        <v>1.530513048171997</v>
+        <v>99135.35865596357</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>1.516146898269653</v>
+        <v>98860.10445680434</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>1.289672374725342</v>
+        <v>94520.87202279018</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>1.020233273506165</v>
+        <v>89358.44196794508</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>0.7275150418281555</v>
+        <v>83749.98577143181</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="n">
-        <v>0.6715163588523865</v>
+        <v>82677.05581168298</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>0.5618932247161865</v>
+        <v>80576.68596999961</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="n">
-        <v>0.4147420525550842</v>
+        <v>77757.28214058952</v>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>0.00600690022110939</v>
+        <v>69925.9517014186</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>-0.3362403213977814</v>
+        <v>63368.52430844584</v>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="n">
-        <v>-0.2713740766048431</v>
+        <v>64611.35599155632</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="n">
-        <v>-0.1796075850725174</v>
+        <v>66369.59409348942</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="n">
-        <v>-0.1446409672498703</v>
+        <v>67039.55148997389</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="n">
-        <v>-0.4344189763069153</v>
+        <v>61487.42970653473</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="n">
-        <v>-0.7018684148788452</v>
+        <v>56363.1214172488</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>-0.1728971004486084</v>
+        <v>66498.16640295857</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="n">
-        <v>0.6122872829437256</v>
+        <v>81542.23180058727</v>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="n">
-        <v>0.7589153647422791</v>
+        <v>84351.61326354495</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="n">
-        <v>0.7583243250846863</v>
+        <v>84340.28899443123</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="n">
-        <v>0.7276414632797241</v>
+        <v>83752.40799559379</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>1.234494924545288</v>
+        <v>93463.67681292525</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="n">
-        <v>1.976040005683899</v>
+        <v>107671.6169247001</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="n">
-        <v>2.285140752792358</v>
+        <v>113593.9607108373</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="n">
-        <v>2.209871768951416</v>
+        <v>112151.8134403784</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="n">
-        <v>2.289175033569336</v>
+        <v>113671.2571842835</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>2.21906590461731</v>
+        <v>112327.9722906535</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="n">
-        <v>2.049307823181152</v>
+        <v>109075.4220197633</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="n">
-        <v>1.700891017913818</v>
+        <v>102399.7859335886</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="n">
-        <v>1.43994927406311</v>
+        <v>97400.16451664077</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="n">
-        <v>1.04275643825531</v>
+        <v>89789.98387149617</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="n">
-        <v>0.7823793888092041</v>
+        <v>84801.18195087578</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="n">
-        <v>0.3546669781208038</v>
+        <v>76606.24887035045</v>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="n">
-        <v>0.2068115770816803</v>
+        <v>73773.35207607767</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="n">
-        <v>-0.08121191710233688</v>
+        <v>68254.84664702512</v>
       </c>
     </row>
   </sheetData>
